--- a/hotjar_recording_campaign.xlsx
+++ b/hotjar_recording_campaign.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Hotjar User ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,22 @@
   </si>
   <si>
     <t>체험권네아로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코칭교재특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과정별소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음단계로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -548,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -709,6 +728,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>56829379</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -716,8 +752,9 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3" display="https://insights.hotjar.com/sites/2099447/playbacks/list?filters=%7B%22EQUAL%22:%7B%22visitor_uuid%22:%22e3233357%22%7D%7D"/>
     <hyperlink ref="A9" r:id="rId4" display="https://insights.hotjar.com/sites/2099447/playbacks/list?filters=%7B%22EQUAL%22:%7B%22visitor_uuid%22:%2280c12bfa%22%7D%7D"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://insights.hotjar.com/sites/2099447/playbacks/list?filters=%7B%22EQUAL%22:%7B%22visitor_uuid%22:%2256829379%22%7D%7D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>